--- a/fuentes/contenidos/grado09/guion03/SolicitudGrafica_CN_09_03_CO_REC80.xlsx
+++ b/fuentes/contenidos/grado09/guion03/SolicitudGrafica_CN_09_03_CO_REC80.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="212">
   <si>
     <t>Fecha:</t>
   </si>
@@ -600,6 +600,69 @@
   </si>
   <si>
     <t>CN_09_03_CO_REC80</t>
+  </si>
+  <si>
+    <t>Hombre negro y su hijo</t>
+  </si>
+  <si>
+    <t>Texto premisas</t>
+  </si>
+  <si>
+    <t>Texto Mecanismos</t>
+  </si>
+  <si>
+    <t>Texto Conclusiones</t>
+  </si>
+  <si>
+    <t>Ver comentarios</t>
+  </si>
+  <si>
+    <t>Hacer un texto que diga premisas</t>
+  </si>
+  <si>
+    <t>Hacer un texto que diga mecanismos</t>
+  </si>
+  <si>
+    <t>Hacer un texro que diga concluiones</t>
+  </si>
+  <si>
+    <t>Cachorros de perro</t>
+  </si>
+  <si>
+    <t>Tortugas en playa</t>
+  </si>
+  <si>
+    <t>Leones cazando</t>
+  </si>
+  <si>
+    <t>Hacer un grupo de arbustos, todos similares entre sí, excepto uno que tiene espinas. Hay venados comiendo de los arbustos, y cerca al espinoso, un venado que no endcuentra como comer. Luego, hacer una flecha a la derecha y  otro dibujo similar, pero ya no con un arbusto espinoso, sino tres.</t>
+  </si>
+  <si>
+    <t>Ilustración</t>
+  </si>
+  <si>
+    <t>Hacer un grupo de arbustos, como los de la imagen anterior, todos espinosos, excepto uno en un extremo. Este arbusto sin espinas está siendo comido por dos venados. No hay más venados en la imagen.</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-mWFZCBwASbs/ThOJtnm59UI/AAAAAAAAAFw/sXJ_loPGmw4/s1600/horse-evolution-2.jpg</t>
+  </si>
+  <si>
+    <t>Arbustos y venados</t>
+  </si>
+  <si>
+    <t>Evolución del caballo</t>
+  </si>
+  <si>
+    <t>Ilustrar la imagen del link. No hacer los huesos ni las pezuñas. Cambiar la palabra Time por Tiempo, y Millions of years ago (mya) por Millones de años en el pasado. Los nombres de los organismos no se modifican. Por último, hacer la ilustración al revés: Hyracotherium va arriba y Equus abajo. La flecha quedaría apuntando hacia abajo, y los años empiezan en 55 y acaban en 5.</t>
+  </si>
+  <si>
+    <t>71285383  y  258777098</t>
+  </si>
+  <si>
+    <t>Zorros blanco y café</t>
+  </si>
+  <si>
+    <t>Usar las dos imágenes, sin modificar, una al lado de la otra.</t>
   </si>
 </sst>
 </file>
@@ -2476,8 +2539,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="9" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2770,15 +2833,15 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="62">
-        <v>1</v>
+      <c r="B10" s="62" t="s">
+        <v>195</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F7B</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>165</v>
@@ -2799,32 +2862,42 @@
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
+      <c r="J10" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="64" t="s">
+        <v>196</v>
+      </c>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
-        <v/>
-      </c>
-      <c r="B11" s="62"/>
+        <v>IMG02</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>195</v>
+      </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
+        <v>Recurso F7B</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>165</v>
+      </c>
       <c r="F11" s="13" t="str">
-        <f t="shared" ref="F11:F74" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v/>
+        <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_09_03_CO_REC80_IMG02.jpg</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>350 x 230 px</v>
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
@@ -2834,32 +2907,42 @@
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
+      <c r="J11" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="65" t="s">
+        <v>197</v>
+      </c>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B12" s="62"/>
+        <v>IMG03</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>195</v>
+      </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
+        <v>Recurso F7B</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>165</v>
+      </c>
       <c r="F12" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC80_IMG03.jpg</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>350 x 230 px</v>
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2869,288 +2952,364 @@
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
+      <c r="J12" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="K12" s="64" t="s">
+        <v>198</v>
+      </c>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B13" s="62"/>
+        <v>IMG04</v>
+      </c>
+      <c r="B13" s="62">
+        <v>248152552</v>
+      </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
+        <v>Recurso F7B</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F13" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC80_IMG04n.jpg</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC80_IMG04a.jpg</v>
       </c>
       <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J13" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>191</v>
+      </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
         <f>'Definición técnica de imagenes'!A19</f>
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B14" s="62"/>
+        <v>IMG05</v>
+      </c>
+      <c r="B14" s="62">
+        <v>275914259</v>
+      </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
+        <v>Recurso F7B</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F14" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC80_IMG05n.jpg</v>
       </c>
       <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC80_IMG05a.jpg</v>
       </c>
       <c r="I14" s="13" t="str">
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J14" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>199</v>
+      </c>
       <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B15" s="62"/>
+        <v>IMG06</v>
+      </c>
+      <c r="B15" s="62">
+        <v>150163562</v>
+      </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
+        <v>Recurso F7B</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F15" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC80_IMG06n.jpg</v>
       </c>
       <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC80_IMG06a.jpg</v>
       </c>
       <c r="I15" s="13" t="str">
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J15" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J15" s="66" t="s">
+        <v>200</v>
+      </c>
       <c r="K15" s="66"/>
       <c r="O15" s="2" t="str">
         <f>'Definición técnica de imagenes'!A24</f>
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B16" s="62"/>
+        <v>IMG07</v>
+      </c>
+      <c r="B16" s="62">
+        <v>265860140</v>
+      </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
+        <v>Recurso F7B</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F16" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC80_IMG07n.jpg</v>
       </c>
       <c r="G16" s="13" t="str">
         <f ca="1">IF($F16&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC80_IMG07a.jpg</v>
       </c>
       <c r="I16" s="13" t="str">
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J16" s="67"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J16" s="67" t="s">
+        <v>201</v>
+      </c>
       <c r="K16" s="64"/>
       <c r="O16" s="2" t="str">
         <f>'Definición técnica de imagenes'!A25</f>
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="121.5" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B17" s="62"/>
+        <v>IMG08</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>195</v>
+      </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+        <v>Recurso F7B</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F17" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC80_IMG08n.jpg</v>
       </c>
       <c r="G17" s="13" t="str">
         <f ca="1">IF($F17&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H17" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC80_IMG08a.jpg</v>
       </c>
       <c r="I17" s="13" t="str">
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J17" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="K17" s="66" t="s">
+        <v>202</v>
+      </c>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B18" s="62"/>
+        <v>IMG09</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>195</v>
+      </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
+        <v>Recurso F7B</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F18" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC80_IMG09n.jpg</v>
       </c>
       <c r="G18" s="13" t="str">
         <f ca="1">IF($F18&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H18" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC80_IMG09a.jpg</v>
       </c>
       <c r="I18" s="13" t="str">
         <f ca="1">IF(OR($B18&lt;&gt;"",$J18&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="64"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J18" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="K18" s="64" t="s">
+        <v>204</v>
+      </c>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="156.75" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B19" s="62"/>
+        <v>IMG10</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>205</v>
+      </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
+        <v>Recurso F7B</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F19" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC80_IMG10n.jpg</v>
       </c>
       <c r="G19" s="13" t="str">
         <f ca="1">IF($F19&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H19" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC80_IMG10a.jpg</v>
       </c>
       <c r="I19" s="13" t="str">
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J19" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="K19" s="68" t="s">
+        <v>208</v>
+      </c>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B20" s="62"/>
+        <v>IMG11</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>209</v>
+      </c>
       <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
+        <v>Recurso F7B</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F20" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_03_CO_REC80_IMG11n.jpg</v>
       </c>
       <c r="G20" s="13" t="str">
         <f ca="1">IF($F20&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>320 x 480 px</v>
       </c>
       <c r="H20" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_09_03_CO_REC80_IMG11a.jpg</v>
       </c>
       <c r="I20" s="13" t="str">
         <f ca="1">IF(OR($B20&lt;&gt;"",$J20&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J20" s="64"/>
-      <c r="K20" s="66"/>
+        <v>800 x 458 px</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="66" t="s">
+        <v>211</v>
+      </c>
       <c r="O20" s="2" t="str">
         <f>'Definición técnica de imagenes'!A32</f>
         <v>F10B</v>

--- a/fuentes/contenidos/grado09/guion03/SolicitudGrafica_CN_09_03_CO_REC80.xlsx
+++ b/fuentes/contenidos/grado09/guion03/SolicitudGrafica_CN_09_03_CO_REC80.xlsx
@@ -605,27 +605,9 @@
     <t>Hombre negro y su hijo</t>
   </si>
   <si>
-    <t>Texto premisas</t>
-  </si>
-  <si>
-    <t>Texto Mecanismos</t>
-  </si>
-  <si>
-    <t>Texto Conclusiones</t>
-  </si>
-  <si>
     <t>Ver comentarios</t>
   </si>
   <si>
-    <t>Hacer un texto que diga premisas</t>
-  </si>
-  <si>
-    <t>Hacer un texto que diga mecanismos</t>
-  </si>
-  <si>
-    <t>Hacer un texro que diga concluiones</t>
-  </si>
-  <si>
     <t>Cachorros de perro</t>
   </si>
   <si>
@@ -635,9 +617,6 @@
     <t>Leones cazando</t>
   </si>
   <si>
-    <t>Hacer un grupo de arbustos, todos similares entre sí, excepto uno que tiene espinas. Hay venados comiendo de los arbustos, y cerca al espinoso, un venado que no endcuentra como comer. Luego, hacer una flecha a la derecha y  otro dibujo similar, pero ya no con un arbusto espinoso, sino tres.</t>
-  </si>
-  <si>
     <t>Ilustración</t>
   </si>
   <si>
@@ -663,6 +642,27 @@
   </si>
   <si>
     <t>Usar las dos imágenes, sin modificar, una al lado de la otra.</t>
+  </si>
+  <si>
+    <t>Premisas y conclusión</t>
+  </si>
+  <si>
+    <t>Hacer un texto que diga Premisas y conclusión</t>
+  </si>
+  <si>
+    <t>Hacer un texto que diga Mecanismo evolutivo</t>
+  </si>
+  <si>
+    <t>Mecanismo evolutivo</t>
+  </si>
+  <si>
+    <t>Implicaciones</t>
+  </si>
+  <si>
+    <t>Hacer un texro que diga Implicaciones</t>
+  </si>
+  <si>
+    <t>Hacer un grupo de arbustos, todos similares entre sí, excepto uno que tiene espinas. Hay venados comiendo de los arbustos, y cerca al espinoso, un venado que no encuentra como comer. Luego, hacer una flecha a la derecha y  otro dibujo similar, pero ya no con un arbusto espinoso, sino tres.</t>
   </si>
 </sst>
 </file>
@@ -2539,8 +2539,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2828,20 +2828,20 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F7B</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>165</v>
@@ -2863,10 +2863,10 @@
         <v/>
       </c>
       <c r="J10" s="63" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="K10" s="64" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="O10" s="2" t="str">
         <f>'Definición técnica de imagenes'!A12</f>
@@ -2879,14 +2879,14 @@
         <v>IMG02</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F7B</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>165</v>
@@ -2908,10 +2908,10 @@
         <v/>
       </c>
       <c r="J11" s="64" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="K11" s="65" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="O11" s="2" t="str">
         <f>'Definición técnica de imagenes'!A13</f>
@@ -2924,14 +2924,14 @@
         <v>IMG03</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F7B</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>165</v>
@@ -2953,10 +2953,10 @@
         <v/>
       </c>
       <c r="J12" s="64" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="K12" s="64" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>'Definición técnica de imagenes'!A18</f>
@@ -3041,7 +3041,7 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
@@ -3084,7 +3084,7 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J15" s="66" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K15" s="66"/>
       <c r="O15" s="2" t="str">
@@ -3127,7 +3127,7 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J16" s="67" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K16" s="64"/>
       <c r="O16" s="2" t="str">
@@ -3141,14 +3141,14 @@
         <v>IMG08</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F7B</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E17" s="63" t="s">
         <v>155</v>
@@ -3170,10 +3170,10 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J17" s="66" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K17" s="66" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="O17" s="2" t="str">
         <f>'Definición técnica de imagenes'!A27</f>
@@ -3186,14 +3186,14 @@
         <v>IMG09</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F7B</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E18" s="63" t="s">
         <v>155</v>
@@ -3215,10 +3215,10 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J18" s="66" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K18" s="64" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="O18" s="2" t="str">
         <f>'Definición técnica de imagenes'!A30</f>
@@ -3231,7 +3231,7 @@
         <v>IMG10</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3260,10 +3260,10 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J19" s="67" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="K19" s="68" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>'Definición técnica de imagenes'!A31</f>
@@ -3276,14 +3276,14 @@
         <v>IMG11</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F7B</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E20" s="63" t="s">
         <v>155</v>
@@ -3305,10 +3305,10 @@
         <v>800 x 458 px</v>
       </c>
       <c r="J20" s="64" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K20" s="66" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O20" s="2" t="str">
         <f>'Definición técnica de imagenes'!A32</f>
